--- a/Data/Export/Common/全局效果.xlsx
+++ b/Data/Export/Common/全局效果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621459E4-F1B9-4601-92FD-7701C3C6D844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B293227-E038-44E2-98C5-673FDD6C840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalEffects" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="119">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,14 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>某兵种在特定地形上暴击率增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1:兵种id p2:地形种类 p3:增加值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支援攻击概率增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,7 +494,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>某兵种类型战法的暴击率增加	p1:兵种类型(0全兵种全地形 -1陆地 -2水上) p2:增加值(百分比) p3: 是否一般攻击, -1都可以 p4:其他条件</t>
+    <t>某兵种的反击伤害率增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1:兵种类型(0全兵种全地形 -1陆地 -2水上) p2:增加值(百分比) p3: 是否一般攻击, -1都可以 p4:其他条件(troop,troop,skill)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1:0攻击方 1受击方 p2:兵种类型(0全兵种全地形 -1陆地 -2水上) p3:增加值(百分比) p4: 是否一般攻击 -1都可以 p5: 是否是远程 -1都可以 p6:其他条件(troop,troop,skill)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1133,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="16">
         <v>1</v>
@@ -1162,7 +1162,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="16">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>36</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
@@ -1220,7 +1220,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
@@ -1278,7 +1278,7 @@
         <v>45</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E10" s="16">
         <v>1</v>
@@ -1307,7 +1307,7 @@
         <v>46</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12" s="16">
         <v>1</v>
@@ -1424,7 +1424,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" s="16">
         <v>2</v>
@@ -1453,7 +1453,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E16" s="16">
         <v>2</v>
@@ -1482,7 +1482,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E17" s="16">
         <v>2</v>
@@ -1511,7 +1511,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E18" s="16">
         <v>2</v>
@@ -1540,7 +1540,7 @@
         <v>64</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E19" s="16">
         <v>2</v>
@@ -1569,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20" s="16">
         <v>2</v>
@@ -1627,7 +1627,7 @@
         <v>65</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -1652,7 +1652,7 @@
         <v>66</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1669,40 +1669,38 @@
       <c r="R23" s="16"/>
       <c r="T23" s="16"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="3">
-        <v>2</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="T24" s="3"/>
+    <row r="24" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="16">
+        <v>20</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="T24" s="16"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="3">
         <v>2</v>
@@ -1726,10 +1724,10 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -1889,7 +1887,7 @@
         <v>63</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1912,7 +1910,7 @@
         <v>62</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1935,7 +1933,7 @@
         <v>61</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2059,7 +2057,7 @@
     <row r="39" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>20</v>
@@ -2082,10 +2080,10 @@
     <row r="40" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2105,10 +2103,10 @@
     <row r="41" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2128,10 +2126,10 @@
     <row r="42" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2151,10 +2149,10 @@
     <row r="43" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2174,10 +2172,10 @@
     <row r="44" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2197,10 +2195,10 @@
     <row r="45" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2220,10 +2218,10 @@
     <row r="46" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2243,10 +2241,10 @@
     <row r="47" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2393,10 +2391,10 @@
     <row r="53" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E53" s="3">
         <v>3</v>
@@ -2420,10 +2418,10 @@
     <row r="54" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2443,10 +2441,10 @@
     <row r="55" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2466,10 +2464,10 @@
     <row r="56" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -2539,10 +2537,10 @@
     <row r="59" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2565,7 +2563,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -2585,10 +2583,10 @@
     <row r="61" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2608,10 +2606,10 @@
     <row r="62" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2631,7 +2629,7 @@
     <row r="63" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>41</v>
@@ -2654,10 +2652,10 @@
     <row r="64" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2677,10 +2675,10 @@
     <row r="65" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2700,10 +2698,10 @@
     <row r="66" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2723,7 +2721,7 @@
     <row r="67" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>41</v>

--- a/Data/Export/Common/全局效果.xlsx
+++ b/Data/Export/Common/全局效果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B293227-E038-44E2-98C5-673FDD6C840C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A35DAA-81C5-41AD-9B58-48D5BA22453C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GlobalEffects" sheetId="36" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="149">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,18 +227,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p1:城市类型 p2:修改值(百分比)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武将忠诚下降值比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p1:修改值(百分比)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>火计伤害增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,36 +466,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p1:增加值 p2:兵种类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1:增加值, p2:建筑类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1:兵种类型 p2:增加值(百分比)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1:增加值 p2:兵种类型(0全兵种全地形 -1陆地 -2水上)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1:兵种类型 p2:原技能id p3:目标技能id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>某兵种的反击伤害率增加</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>p1:兵种类型(0全兵种全地形 -1陆地 -2水上) p2:增加值(百分比) p3: 是否一般攻击, -1都可以 p4:其他条件(troop,troop,skill)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1:0攻击方 1受击方 p2:兵种类型(0全兵种全地形 -1陆地 -2水上) p3:增加值(百分比) p4: 是否一般攻击 -1都可以 p5: 是否是远程 -1都可以 p6:其他条件(troop,troop,skill)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>计算周围一格的粮食产量，并提升系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算周围一格的资金产量，并提升系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某兵种类型战法的增减伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingBaseAttackBack</t>
+  </si>
+  <si>
+    <t>value: 值, kinds: 建筑类型</t>
+  </si>
+  <si>
+    <t>CityDurabilityLimitAction</t>
+  </si>
+  <si>
+    <t>CityFoodLimitAction</t>
+  </si>
+  <si>
+    <t>CityGoldLimitAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CitySecurityChangeAction</t>
+  </si>
+  <si>
+    <t>value: 值(百分比) kinds: 城市类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityStoreLimitAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityTroopsLimitAction</t>
+  </si>
+  <si>
+    <t>ForceCityMaxMoraleAction</t>
+  </si>
+  <si>
+    <t>value: 值  kinds: 城市类型</t>
+  </si>
+  <si>
+    <t>ForcePersonLoyaltyChangeAction</t>
+  </si>
+  <si>
+    <t>value:修改值(百分比)</t>
+  </si>
+  <si>
+    <t>ForceTroopMaxTroopAction</t>
+  </si>
+  <si>
+    <t>value: 增加值 kinds: 兵种类型</t>
+  </si>
+  <si>
+    <t>TroopAddAttackAction</t>
+  </si>
+  <si>
+    <t>TroopAddDamageBuildingExtraFactorAction</t>
+  </si>
+  <si>
+    <t>value: 增加值(百分比) kinds: 兵种类型</t>
+  </si>
+  <si>
+    <t>TroopAddDamageTroopExtraFactorAction</t>
+  </si>
+  <si>
+    <t>TroopAddDefenceAction</t>
+  </si>
+  <si>
+    <t>value: 增加值  kinds:兵种kind   checkLand 0:只检查kinds 1:只对landType检查kinds 2只对waterType检查kinds</t>
+  </si>
+  <si>
+    <t>TroopAddMoveAbilityAction</t>
+  </si>
+  <si>
+    <t>TroopAddSkillAction</t>
+  </si>
+  <si>
+    <t>TroopReplaceSkillAction</t>
+  </si>
+  <si>
+    <t>value: 技能id kinds: 兵种类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> value: 技能id kinds: 兵种类型 srcSkillId: 被替换技能id</t>
+  </si>
+  <si>
+    <t>TroopSkillCalculateCriticalAction</t>
+  </si>
+  <si>
+    <t>TroopSkillCalculateSuccessAction</t>
+  </si>
+  <si>
+    <t>TroopSkillCalculateAttackBackAction</t>
+  </si>
+  <si>
+    <t>value:增加值（百分比）  kinds： 兵种类型  checkLand： 0:只检查kinds 1:只对landType检查kinds，2只对waterType检查kinds isNormal：  -1都可以 0非 1是 conditionId： 额外条件 支持参数(troop,troop,skill)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> value： 增加值(百分比) kinds： 兵种类型 checkLand： 0:只检查kinds 1:只对landType检查kinds 2只对waterType检查kinds isAttacker： 0攻击方 1受击方 isNormal：  -1都可以 0非 1是 isRange： -1都可以 0非 1是 conditionId： 额外条件 支持参数(troop,troop,skill)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value： 增加值(百分比) kinds： 兵种类型  checkLand： 0:只检查kinds 1:只对landType检查kinds 2只对waterType检查kinds isNormal：  -1都可以 0非 1是 conditionId： 额外条件 支持参数(troop,troop,skill)</t>
+  </si>
+  <si>
+    <t>value： 增加值(百分比) kinds： 兵种类型 checkLand： 0:只检查kinds 1:只对landType检查kinds 2只对waterType检查kinds isAttacker： 0攻击方 1受击方 isNormal：  -1都可以 0非 1是 isRange： -1都可以 0非 1是 conditionId： 额外条件 支持参数(troop,troop,skill)</t>
+  </si>
+  <si>
+    <t>value:提升系数（百分比） kinds：有效kind类型合集</t>
   </si>
 </sst>
 </file>
@@ -559,7 +650,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -596,8 +687,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -620,6 +717,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -627,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -636,9 +776,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,29 +793,65 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1001,63 +1174,64 @@
     <col min="1" max="1" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.25" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="130.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.25" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="38.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="118.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:22" s="8" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="8"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="6"/>
-    </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2"/>
       <c r="F2"/>
-      <c r="G2" s="2"/>
+      <c r="G2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2"/>
+      <c r="J2" s="2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" s="2"/>
+      <c r="N2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -1065,731 +1239,804 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-    </row>
-    <row r="4" spans="1:21" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+    </row>
+    <row r="4" spans="1:22" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="16">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="28"/>
+      <c r="B5" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="U5" s="25"/>
+    </row>
+    <row r="6" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="U6" s="25"/>
+    </row>
+    <row r="7" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="25">
+        <v>3</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="U7" s="25"/>
+    </row>
+    <row r="8" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="25">
+        <v>4</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="U8" s="25"/>
+    </row>
+    <row r="9" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="25">
+        <v>5</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="U9" s="25"/>
+    </row>
+    <row r="10" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="25">
+        <v>6</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="U10" s="25"/>
+    </row>
+    <row r="11" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="25">
+        <v>7</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="U11" s="25"/>
+    </row>
+    <row r="12" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="25">
+        <v>8</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="U12" s="25"/>
+    </row>
+    <row r="13" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="25">
+        <v>9</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="U13" s="25"/>
+    </row>
+    <row r="14" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="25">
+        <v>10</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="U14" s="25"/>
+    </row>
+    <row r="15" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="27"/>
+      <c r="B15" s="25">
+        <v>11</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="25">
+        <v>2</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="U15" s="25"/>
+    </row>
+    <row r="16" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="25">
+        <v>12</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="25">
+        <v>2</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="2:21" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="25">
+        <v>13</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="25">
+        <v>2</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="U17" s="25"/>
+    </row>
+    <row r="18" spans="2:21" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="25">
+        <v>14</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18" s="25">
+        <v>2</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="U18" s="25"/>
+    </row>
+    <row r="19" spans="2:21" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="25">
+        <v>15</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="25">
+        <v>2</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="U19" s="25"/>
+    </row>
+    <row r="20" spans="2:21" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="25">
+        <v>16</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="25">
+        <v>2</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="U20" s="25"/>
+    </row>
+    <row r="21" spans="2:21" s="24" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="25">
+        <v>17</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="25">
+        <v>2</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="U21" s="25"/>
+    </row>
+    <row r="22" spans="2:21" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B22" s="25">
+        <v>18</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="U22" s="25"/>
+    </row>
+    <row r="23" spans="2:21" s="24" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="B23" s="25">
+        <v>19</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="U23" s="25"/>
+    </row>
+    <row r="24" spans="2:21" s="24" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="25">
+        <v>20</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="U24" s="25"/>
+    </row>
+    <row r="25" spans="2:21" s="24" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="25">
+        <v>21</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="U25" s="25"/>
+    </row>
+    <row r="26" spans="2:21" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="12">
+        <v>22</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="12">
+        <v>5</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="U26" s="12"/>
+    </row>
+    <row r="27" spans="2:21" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="12">
+        <v>23</v>
+      </c>
+      <c r="C27" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="T5" s="16"/>
-    </row>
-    <row r="6" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="16">
+      <c r="D27" s="12"/>
+      <c r="E27" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="12">
+        <v>5</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="U27" s="12"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B28" s="11"/>
+      <c r="C28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="T6" s="16"/>
-    </row>
-    <row r="7" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="16">
-        <v>3</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="T7" s="16"/>
-    </row>
-    <row r="8" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="16">
-        <v>4</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="T8" s="16"/>
-    </row>
-    <row r="9" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="16">
-        <v>5</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="T9" s="16"/>
-    </row>
-    <row r="10" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="16">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="T10" s="16"/>
-    </row>
-    <row r="11" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="16">
-        <v>7</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="T11" s="16"/>
-    </row>
-    <row r="12" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="16">
-        <v>8</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="T12" s="16"/>
-    </row>
-    <row r="13" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="16">
-        <v>9</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="T13" s="16"/>
-    </row>
-    <row r="14" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="16">
-        <v>10</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="T14" s="16"/>
-    </row>
-    <row r="15" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="16">
-        <v>11</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="16">
-        <v>2</v>
-      </c>
-      <c r="F15" s="16" t="s">
+      <c r="G28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="T15" s="16"/>
-    </row>
-    <row r="16" spans="1:21" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="16">
-        <v>12</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="16">
-        <v>2</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="T16" s="16"/>
-    </row>
-    <row r="17" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="16">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="16">
-        <v>2</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="T17" s="16"/>
-    </row>
-    <row r="18" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="16">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="16">
-        <v>2</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="T18" s="16"/>
-    </row>
-    <row r="19" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="16">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="16">
-        <v>2</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="16"/>
-      <c r="T19" s="16"/>
-    </row>
-    <row r="20" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="16">
-        <v>16</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="16">
-        <v>2</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="T20" s="16"/>
-    </row>
-    <row r="21" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="16">
-        <v>17</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="16">
-        <v>2</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="T21" s="16"/>
-    </row>
-    <row r="22" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="16">
-        <v>18</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="T22" s="16"/>
-    </row>
-    <row r="23" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="16">
-        <v>19</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="T23" s="16"/>
-    </row>
-    <row r="24" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="16">
-        <v>20</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="T24" s="16"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="3">
-        <v>2</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="3">
-        <v>2</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1797,26 +2044,27 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="O28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-      <c r="T28" s="3"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="U28" s="3"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B29" s="11"/>
       <c r="C29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="3">
+        <v>69</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="3">
         <v>2</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1824,26 +2072,27 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="P29" s="3"/>
+      <c r="O29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-      <c r="T29" s="3"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="U29" s="3"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B30" s="11"/>
       <c r="C30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="3">
+        <v>24</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3">
         <v>2</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1851,24 +2100,27 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-      <c r="T30" s="3"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="U30" s="3"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B31" s="11"/>
       <c r="C31" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3">
+      <c r="E31" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1876,22 +2128,27 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-      <c r="T31" s="3"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B32" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="U31" s="3"/>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B32" s="11"/>
       <c r="C32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="3">
+        <v>2</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1899,22 +2156,27 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
-      <c r="T32" s="3"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="U32" s="3"/>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B33" s="11"/>
       <c r="C33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="3">
+        <v>2</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -1922,22 +2184,25 @@
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="P33" s="3"/>
+      <c r="O33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
-      <c r="T33" s="3"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B34" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="U33" s="3"/>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B34" s="11"/>
       <c r="C34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -1945,25 +2210,22 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="P34" s="3"/>
+      <c r="O34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
-      <c r="T34" s="3"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B35" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="U34" s="3"/>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B35" s="11"/>
       <c r="C35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E35" s="3">
-        <v>2</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -1972,25 +2234,22 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="P35" s="3"/>
+      <c r="O35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
-      <c r="T35" s="3"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B36" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="U35" s="3"/>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B36" s="11"/>
       <c r="C36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="3">
-        <v>2</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -1999,25 +2258,22 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
-      <c r="T36" s="3"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B37" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="U36" s="3"/>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B37" s="11"/>
       <c r="C37" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>31</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -2026,22 +2282,27 @@
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="O37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
-      <c r="T37" s="3"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B38" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="U37" s="3"/>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B38" s="11"/>
       <c r="C38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="3">
+        <v>2</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -2049,22 +2310,27 @@
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="O38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
-      <c r="T38" s="3"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B39" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="U38" s="3"/>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B39" s="11"/>
       <c r="C39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
@@ -2072,22 +2338,27 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="P39" s="3"/>
+      <c r="O39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-      <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B40" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B40" s="11"/>
       <c r="C40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -2095,20 +2366,21 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="P40" s="3"/>
+      <c r="O40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-      <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B41" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B41" s="11"/>
       <c r="C41" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -2118,20 +2390,21 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="O41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
-      <c r="T41" s="3"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B42" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="U41" s="3"/>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B42" s="11"/>
       <c r="C42" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E42" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -2141,20 +2414,21 @@
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="O42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
-      <c r="T42" s="3"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B43" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="U42" s="3"/>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B43" s="11"/>
       <c r="C43" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -2164,20 +2438,21 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="P43" s="3"/>
+      <c r="O43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
-      <c r="T43" s="3"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B44" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="U43" s="3"/>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B44" s="11"/>
       <c r="C44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E44" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2187,20 +2462,21 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="P44" s="3"/>
+      <c r="O44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
-      <c r="T44" s="3"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B45" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="U44" s="3"/>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B45" s="11"/>
       <c r="C45" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E45" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -2210,20 +2486,21 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="P45" s="3"/>
+      <c r="O45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
-      <c r="T45" s="3"/>
-    </row>
-    <row r="46" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="U45" s="3"/>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B46" s="11"/>
       <c r="C46" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="D46" s="3"/>
+      <c r="E46" s="15" t="s">
+        <v>80</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -2233,20 +2510,21 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
-      <c r="P46" s="3"/>
+      <c r="O46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
-      <c r="T46" s="3"/>
-    </row>
-    <row r="47" spans="2:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="U46" s="3"/>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B47" s="11"/>
       <c r="C47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E47" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -2256,25 +2534,22 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="P47" s="3"/>
+      <c r="O47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
-      <c r="T47" s="3"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B48" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="U47" s="3"/>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B48" s="11"/>
       <c r="C48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
@@ -2283,25 +2558,22 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="P48" s="3"/>
+      <c r="O48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-      <c r="T48" s="3"/>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B49" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="U48" s="3"/>
+    </row>
+    <row r="49" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="11"/>
       <c r="C49" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="3">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D49" s="3"/>
+      <c r="E49" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2310,25 +2582,22 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="P49" s="3"/>
+      <c r="O49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
-      <c r="T49" s="3"/>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B50" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="U49" s="3"/>
+    </row>
+    <row r="50" spans="2:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="11"/>
       <c r="C50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="3">
-        <v>3</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>35</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -2337,22 +2606,27 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
-      <c r="P50" s="3"/>
+      <c r="O50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
-      <c r="T50" s="3"/>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B51" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="U50" s="3"/>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B51" s="11"/>
       <c r="C51" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F51" s="3">
+        <v>3</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -2360,22 +2634,27 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="P51" s="3"/>
+      <c r="O51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
-      <c r="T51" s="3"/>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B52" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="U51" s="3"/>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B52" s="11"/>
       <c r="C52" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F52" s="3">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2383,26 +2662,27 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="P52" s="3"/>
+      <c r="O52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-      <c r="T52" s="3"/>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B53" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="U52" s="3"/>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B53" s="11"/>
       <c r="C53" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="3">
+        <v>34</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="3">
         <v>3</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="G53" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
@@ -2410,20 +2690,21 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="O53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
-      <c r="T53" s="3"/>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B54" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="U53" s="3"/>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B54" s="11"/>
       <c r="C54" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -2433,20 +2714,21 @@
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
-      <c r="P54" s="3"/>
+      <c r="O54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-      <c r="T54" s="3"/>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B55" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="U54" s="3"/>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B55" s="11"/>
       <c r="C55" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -2456,22 +2738,27 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="O55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-      <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B56" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B56" s="11"/>
       <c r="C56" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" s="3">
+        <v>3</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -2479,25 +2766,22 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-      <c r="P56" s="3"/>
+      <c r="O56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-      <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B57" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B57" s="11"/>
       <c r="C57" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E57" s="3">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -2506,20 +2790,21 @@
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
-      <c r="P57" s="3"/>
+      <c r="O57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
-      <c r="T57" s="3"/>
-    </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B58" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="U57" s="3"/>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B58" s="11"/>
       <c r="C58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E58" s="3"/>
+        <v>92</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -2529,20 +2814,21 @@
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
-      <c r="P58" s="3"/>
+      <c r="O58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
-      <c r="T58" s="3"/>
-    </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B59" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="U58" s="3"/>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B59" s="11"/>
       <c r="C59" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -2552,22 +2838,27 @@
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
-      <c r="P59" s="3"/>
+      <c r="O59" s="3"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
-      <c r="T59" s="3"/>
-    </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B60" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="U59" s="3"/>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B60" s="11"/>
       <c r="C60" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" s="3">
+        <v>4</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -2575,20 +2866,21 @@
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
-      <c r="P60" s="3"/>
+      <c r="O60" s="3"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
-      <c r="T60" s="3"/>
-    </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B61" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B61" s="11"/>
       <c r="C61" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="15" t="s">
+        <v>20</v>
+      </c>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -2598,20 +2890,21 @@
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
-      <c r="P61" s="3"/>
+      <c r="O61" s="3"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
-      <c r="T61" s="3"/>
-    </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B62" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B62" s="11"/>
       <c r="C62" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -2621,20 +2914,21 @@
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
-      <c r="P62" s="3"/>
+      <c r="O62" s="3"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
-      <c r="T62" s="3"/>
-    </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B63" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="U62" s="3"/>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B63" s="11"/>
       <c r="C63" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -2644,20 +2938,21 @@
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
-      <c r="P63" s="3"/>
+      <c r="O63" s="3"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
-      <c r="T63" s="3"/>
-    </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B64" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="U63" s="3"/>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B64" s="11"/>
       <c r="C64" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E64" s="3"/>
+        <v>98</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="15" t="s">
+        <v>97</v>
+      </c>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -2667,20 +2962,21 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="P64" s="3"/>
+      <c r="O64" s="3"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
-      <c r="T64" s="3"/>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B65" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="U64" s="3"/>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B65" s="11"/>
       <c r="C65" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E65" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -2690,20 +2986,21 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="P65" s="3"/>
+      <c r="O65" s="3"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
-      <c r="T65" s="3"/>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B66" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="U65" s="3"/>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B66" s="11"/>
       <c r="C66" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E66" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="D66" s="3"/>
+      <c r="E66" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -2713,20 +3010,21 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="P66" s="3"/>
+      <c r="O66" s="3"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
-      <c r="T66" s="3"/>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B67" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="U66" s="3"/>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B67" s="11"/>
       <c r="C67" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E67" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="D67" s="3"/>
+      <c r="E67" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2736,16 +3034,21 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-      <c r="P67" s="3"/>
+      <c r="O67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-      <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B68" s="11"/>
+      <c r="C68" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="E68" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2755,16 +3058,21 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="P68" s="3"/>
+      <c r="O68" s="3"/>
       <c r="Q68" s="3"/>
       <c r="R68" s="3"/>
-      <c r="T68" s="3"/>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="U68" s="3"/>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B69" s="11"/>
+      <c r="C69" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="E69" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -2774,16 +3082,21 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="P69" s="3"/>
+      <c r="O69" s="3"/>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
-      <c r="T69" s="3"/>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="U69" s="3"/>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B70" s="11"/>
+      <c r="C70" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="E70" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -2793,16 +3106,17 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="P70" s="3"/>
+      <c r="O70" s="3"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
-      <c r="T70" s="3"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="S70" s="3"/>
+      <c r="U70" s="3"/>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
+      <c r="E71" s="15"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -2812,16 +3126,17 @@
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
-      <c r="P71" s="3"/>
+      <c r="O71" s="3"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
-      <c r="T71" s="3"/>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="S71" s="3"/>
+      <c r="U71" s="3"/>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="E72" s="15"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -2831,16 +3146,17 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="P72" s="3"/>
+      <c r="O72" s="3"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
-      <c r="T72" s="3"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="S72" s="3"/>
+      <c r="U72" s="3"/>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="E73" s="15"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -2850,16 +3166,17 @@
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
-      <c r="P73" s="3"/>
+      <c r="O73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
-      <c r="T73" s="3"/>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="S73" s="3"/>
+      <c r="U73" s="3"/>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.15">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
+      <c r="E74" s="15"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -2869,269 +3186,290 @@
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
-      <c r="P74" s="3"/>
+      <c r="O74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
-      <c r="T74" s="3"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="E75" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="U74" s="3"/>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.15">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="15"/>
       <c r="F75" s="3"/>
-      <c r="I75" s="5"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="P75" s="3"/>
+      <c r="O75" s="3"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
-      <c r="T75" s="3"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="E76" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="U75" s="3"/>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.15">
       <c r="F76" s="3"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="J76" s="4"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="P76" s="3"/>
+      <c r="O76" s="3"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
-      <c r="T76" s="3"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="E77" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="U76" s="3"/>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.15">
       <c r="F77" s="3"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="J77" s="4"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="P77" s="3"/>
+      <c r="O77" s="3"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
-      <c r="T77" s="3"/>
-    </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="E78" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="U77" s="3"/>
+    </row>
+    <row r="78" spans="2:21" x14ac:dyDescent="0.15">
       <c r="F78" s="3"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="J78" s="4"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="P78" s="3"/>
+      <c r="O78" s="3"/>
       <c r="Q78" s="3"/>
       <c r="R78" s="3"/>
-      <c r="T78" s="3"/>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="E79" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="U78" s="3"/>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.15">
       <c r="F79" s="3"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="J79" s="4"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-      <c r="P79" s="3"/>
+      <c r="O79" s="3"/>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
-      <c r="T79" s="3"/>
-    </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="E80" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="U79" s="3"/>
+    </row>
+    <row r="80" spans="2:21" x14ac:dyDescent="0.15">
       <c r="F80" s="3"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="J80" s="4"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="P80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
-      <c r="T80" s="3"/>
-    </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E81" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="U80" s="3"/>
+    </row>
+    <row r="81" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="J81" s="4"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E82" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="U81" s="3"/>
+    </row>
+    <row r="82" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F82" s="3"/>
-      <c r="J82" s="3"/>
+      <c r="G82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E83" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="G83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E84" s="3"/>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F84" s="3"/>
-      <c r="J84" s="3"/>
+      <c r="G84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E85" s="3"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F85" s="3"/>
-      <c r="J85" s="3"/>
+      <c r="G85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E86" s="3"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="G86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E87" s="3"/>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F87" s="3"/>
-      <c r="J87" s="3"/>
+      <c r="G87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E88" s="3"/>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="G88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E89" s="3"/>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F89" s="3"/>
-      <c r="J89" s="3"/>
+      <c r="G89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E90" s="3"/>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F90" s="3"/>
-      <c r="J90" s="3"/>
+      <c r="G90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E91" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F91" s="3"/>
-      <c r="J91" s="3"/>
+      <c r="G91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E92" s="3"/>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F92" s="3"/>
-      <c r="J92" s="3"/>
+      <c r="G92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E93" s="3"/>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F93" s="3"/>
-      <c r="J93" s="3"/>
+      <c r="G93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E94" s="3"/>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F94" s="3"/>
-      <c r="J94" s="3"/>
+      <c r="G94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E95" s="3"/>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F95" s="3"/>
-      <c r="J95" s="3"/>
+      <c r="G95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E96" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="6:21" x14ac:dyDescent="0.15">
       <c r="F96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="G96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E97" s="3"/>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="G97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E98" s="3"/>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F98" s="3"/>
-      <c r="J98" s="3"/>
+      <c r="G98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E99" s="3"/>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="G99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E100" s="3"/>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="G100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E101" s="3"/>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F101" s="3"/>
-      <c r="J101" s="3"/>
+      <c r="G101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E102" s="3"/>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F102" s="3"/>
-      <c r="J102" s="3"/>
+      <c r="G102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+    </row>
+    <row r="103" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
